--- a/Template/test.xlsx
+++ b/Template/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t xml:space="preserve">KẾ HOẠCH KIỂM TOÁN </t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN B</t>
+  </si>
+  <si>
+    <t>NVB</t>
+  </si>
+  <si>
+    <t>DEF</t>
   </si>
 </sst>
 </file>
@@ -3627,10 +3636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,7 +3647,7 @@
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3652,35 +3661,8 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -3690,71 +3672,20 @@
       </c>
       <c r="F2" s="5">
         <f>E4</f>
-        <v>43528</v>
+        <v>43634</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5">
         <f>J4</f>
-        <v>43533</v>
+        <v>43639</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5">
-        <f>L4</f>
-        <v>43535</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5">
-        <f>Q4</f>
-        <v>43540</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="5">
-        <f>S4</f>
-        <v>43542</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="5">
-        <f>X4</f>
-        <v>43547</v>
-      </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="5">
-        <f>Z4</f>
-        <v>43549</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="5">
-        <f>AE4</f>
-        <v>43554</v>
-      </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3766,29 +3697,8 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
@@ -3802,118 +3712,34 @@
         <v>6</v>
       </c>
       <c r="E4" s="9">
-        <v>43528</v>
+        <v>43634</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:AF4" si="0">E4+1</f>
-        <v>43529</v>
+        <f t="shared" ref="F4:K4" si="0">E4+1</f>
+        <v>43635</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>43530</v>
+        <v>43636</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>43531</v>
+        <v>43637</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>43532</v>
+        <v>43638</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>43533</v>
+        <v>43639</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="0"/>
-        <v>43534</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" si="0"/>
-        <v>43535</v>
-      </c>
-      <c r="M4" s="9">
-        <f t="shared" si="0"/>
-        <v>43536</v>
-      </c>
-      <c r="N4" s="9">
-        <f t="shared" si="0"/>
-        <v>43537</v>
-      </c>
-      <c r="O4" s="9">
-        <f t="shared" si="0"/>
-        <v>43538</v>
-      </c>
-      <c r="P4" s="9">
-        <f t="shared" si="0"/>
-        <v>43539</v>
-      </c>
-      <c r="Q4" s="9">
-        <f t="shared" si="0"/>
-        <v>43540</v>
-      </c>
-      <c r="R4" s="9">
-        <f t="shared" si="0"/>
-        <v>43541</v>
-      </c>
-      <c r="S4" s="9">
-        <f t="shared" si="0"/>
-        <v>43542</v>
-      </c>
-      <c r="T4" s="9">
-        <f t="shared" si="0"/>
-        <v>43543</v>
-      </c>
-      <c r="U4" s="9">
-        <f t="shared" si="0"/>
-        <v>43544</v>
-      </c>
-      <c r="V4" s="9">
-        <f t="shared" si="0"/>
-        <v>43545</v>
-      </c>
-      <c r="W4" s="9">
-        <f t="shared" si="0"/>
-        <v>43546</v>
-      </c>
-      <c r="X4" s="9">
-        <f t="shared" si="0"/>
-        <v>43547</v>
-      </c>
-      <c r="Y4" s="9">
-        <f t="shared" si="0"/>
-        <v>43548</v>
-      </c>
-      <c r="Z4" s="9">
-        <f t="shared" si="0"/>
-        <v>43549</v>
-      </c>
-      <c r="AA4" s="9">
-        <f t="shared" si="0"/>
-        <v>43550</v>
-      </c>
-      <c r="AB4" s="9">
-        <f t="shared" si="0"/>
-        <v>43551</v>
-      </c>
-      <c r="AC4" s="9">
-        <f t="shared" si="0"/>
-        <v>43552</v>
-      </c>
-      <c r="AD4" s="9">
-        <f t="shared" si="0"/>
-        <v>43553</v>
-      </c>
-      <c r="AE4" s="9">
-        <f t="shared" si="0"/>
-        <v>43554</v>
-      </c>
-      <c r="AF4" s="9">
-        <f t="shared" si="0"/>
-        <v>43555</v>
+        <v>43640</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -3939,71 +3765,8 @@
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="10">
-        <v>2</v>
-      </c>
-      <c r="M5" s="10">
-        <v>3</v>
-      </c>
-      <c r="N5" s="10">
-        <v>4</v>
-      </c>
-      <c r="O5" s="10">
-        <v>5</v>
-      </c>
-      <c r="P5" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>7</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="10">
-        <v>2</v>
-      </c>
-      <c r="T5" s="10">
-        <v>3</v>
-      </c>
-      <c r="U5" s="10">
-        <v>4</v>
-      </c>
-      <c r="V5" s="10">
-        <v>5</v>
-      </c>
-      <c r="W5" s="10">
-        <v>6</v>
-      </c>
-      <c r="X5" s="10">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -4019,29 +3782,8 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -4067,34 +3809,41 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
